--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H2">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N2">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O2">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P2">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q2">
-        <v>81.38081461214738</v>
+        <v>87.02882352060864</v>
       </c>
       <c r="R2">
-        <v>81.38081461214738</v>
+        <v>783.2594116854779</v>
       </c>
       <c r="S2">
-        <v>0.1712929948390628</v>
+        <v>0.1280024005074371</v>
       </c>
       <c r="T2">
-        <v>0.1712929948390628</v>
+        <v>0.1280024005074372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H3">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N3">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O3">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P3">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q3">
-        <v>67.67127507920414</v>
+        <v>70.51290597129565</v>
       </c>
       <c r="R3">
-        <v>67.67127507920414</v>
+        <v>634.6161537416609</v>
       </c>
       <c r="S3">
-        <v>0.1424367085551965</v>
+        <v>0.1037107117614167</v>
       </c>
       <c r="T3">
-        <v>0.1424367085551965</v>
+        <v>0.1037107117614167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H4">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N4">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O4">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P4">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q4">
-        <v>8.047882988388681</v>
+        <v>9.65884716251</v>
       </c>
       <c r="R4">
-        <v>8.047882988388681</v>
+        <v>86.92962446259</v>
       </c>
       <c r="S4">
-        <v>0.01693944679425307</v>
+        <v>0.01420627756323691</v>
       </c>
       <c r="T4">
-        <v>0.01693944679425307</v>
+        <v>0.01420627756323692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H5">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N5">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O5">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P5">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q5">
-        <v>18.81467045769148</v>
+        <v>33.74321317225444</v>
       </c>
       <c r="R5">
-        <v>18.81467045769148</v>
+        <v>303.6889185502899</v>
       </c>
       <c r="S5">
-        <v>0.0396017324840953</v>
+        <v>0.04962967568853715</v>
       </c>
       <c r="T5">
-        <v>0.0396017324840953</v>
+        <v>0.04962967568853716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H6">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N6">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O6">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P6">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q6">
-        <v>76.8629945244511</v>
+        <v>79.28413566949999</v>
       </c>
       <c r="R6">
-        <v>76.8629945244511</v>
+        <v>713.5572210254999</v>
       </c>
       <c r="S6">
-        <v>0.1617837396582961</v>
+        <v>0.1166114774084027</v>
       </c>
       <c r="T6">
-        <v>0.1617837396582961</v>
+        <v>0.1166114774084027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H7">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N7">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O7">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P7">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q7">
-        <v>63.91453404177521</v>
+        <v>64.23796826524999</v>
       </c>
       <c r="R7">
-        <v>63.91453404177521</v>
+        <v>578.1417143872499</v>
       </c>
       <c r="S7">
-        <v>0.1345293974008061</v>
+        <v>0.09448150404705208</v>
       </c>
       <c r="T7">
-        <v>0.1345293974008061</v>
+        <v>0.09448150404705206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H8">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N8">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O8">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P8">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q8">
-        <v>7.601108308119697</v>
+        <v>8.7993071475</v>
       </c>
       <c r="R8">
-        <v>7.601108308119697</v>
+        <v>79.19376432750001</v>
       </c>
       <c r="S8">
-        <v>0.01599906086464215</v>
+        <v>0.01294206209067655</v>
       </c>
       <c r="T8">
-        <v>0.01599906086464215</v>
+        <v>0.01294206209067656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H9">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N9">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O9">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P9">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q9">
-        <v>17.77018231214696</v>
+        <v>30.74040740583333</v>
       </c>
       <c r="R9">
-        <v>17.77018231214696</v>
+        <v>276.6636666525</v>
       </c>
       <c r="S9">
-        <v>0.03740325974359861</v>
+        <v>0.04521313492869961</v>
       </c>
       <c r="T9">
-        <v>0.03740325974359861</v>
+        <v>0.04521313492869961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H10">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N10">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O10">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P10">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q10">
-        <v>9.502665447054277</v>
+        <v>10.62102024028133</v>
       </c>
       <c r="R10">
-        <v>9.502665447054277</v>
+        <v>95.589182162532</v>
       </c>
       <c r="S10">
-        <v>0.02000152039688041</v>
+        <v>0.01562144622433222</v>
       </c>
       <c r="T10">
-        <v>0.02000152039688041</v>
+        <v>0.01562144622433222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H11">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N11">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O11">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P11">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q11">
-        <v>7.901831537543638</v>
+        <v>8.605413370259333</v>
       </c>
       <c r="R11">
-        <v>7.901831537543638</v>
+        <v>77.44872033233399</v>
       </c>
       <c r="S11">
-        <v>0.0166320329334424</v>
+        <v>0.01265688221662733</v>
       </c>
       <c r="T11">
-        <v>0.0166320329334424</v>
+        <v>0.01265688221662732</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H12">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N12">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O12">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P12">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q12">
-        <v>0.939734259974853</v>
+        <v>1.17876821794</v>
       </c>
       <c r="R12">
-        <v>0.939734259974853</v>
+        <v>10.60891396146</v>
       </c>
       <c r="S12">
-        <v>0.001977983343016767</v>
+        <v>0.001733737805871452</v>
       </c>
       <c r="T12">
-        <v>0.001977983343016767</v>
+        <v>0.001733737805871452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H13">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N13">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O13">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P13">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q13">
-        <v>2.196949240531816</v>
+        <v>4.118030505028889</v>
       </c>
       <c r="R13">
-        <v>2.196949240531816</v>
+        <v>37.06227454526</v>
       </c>
       <c r="S13">
-        <v>0.00462421046918259</v>
+        <v>0.006056818519231489</v>
       </c>
       <c r="T13">
-        <v>0.00462421046918259</v>
+        <v>0.006056818519231489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H14">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.25600522776416</v>
+        <v>5.397241999999999</v>
       </c>
       <c r="N14">
-        <v>5.25600522776416</v>
+        <v>16.191726</v>
       </c>
       <c r="O14">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330405</v>
       </c>
       <c r="P14">
-        <v>0.4626153523136182</v>
+        <v>0.4331003391330406</v>
       </c>
       <c r="Q14">
-        <v>52.04076341017032</v>
+        <v>117.5309121005713</v>
       </c>
       <c r="R14">
-        <v>52.04076341017032</v>
+        <v>1057.778208905142</v>
       </c>
       <c r="S14">
-        <v>0.1095370974193788</v>
+        <v>0.1728650149928685</v>
       </c>
       <c r="T14">
-        <v>0.1095370974193788</v>
+        <v>0.1728650149928685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H15">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.37057035224949</v>
+        <v>4.372979</v>
       </c>
       <c r="N15">
-        <v>4.37057035224949</v>
+        <v>13.118937</v>
       </c>
       <c r="O15">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="P15">
-        <v>0.3846824452603219</v>
+        <v>0.3509086099755513</v>
       </c>
       <c r="Q15">
-        <v>43.2738948712336</v>
+        <v>95.22645278211434</v>
       </c>
       <c r="R15">
-        <v>43.2738948712336</v>
+        <v>857.038075039029</v>
       </c>
       <c r="S15">
-        <v>0.09108430637087686</v>
+        <v>0.1400595119504553</v>
       </c>
       <c r="T15">
-        <v>0.09108430637087686</v>
+        <v>0.1400595119504552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H16">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.519775026349899</v>
+        <v>0.59901</v>
       </c>
       <c r="N16">
-        <v>0.519775026349899</v>
+        <v>1.79703</v>
       </c>
       <c r="O16">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="P16">
-        <v>0.04574879523873034</v>
+        <v>0.04806740815847847</v>
       </c>
       <c r="Q16">
-        <v>5.146396930867716</v>
+        <v>13.04410505539</v>
       </c>
       <c r="R16">
-        <v>5.146396930867716</v>
+        <v>117.39694549851</v>
       </c>
       <c r="S16">
-        <v>0.01083230423681835</v>
+        <v>0.01918533069869355</v>
       </c>
       <c r="T16">
-        <v>0.01083230423681835</v>
+        <v>0.01918533069869355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H17">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.21515134439961</v>
+        <v>2.092643333333333</v>
       </c>
       <c r="N17">
-        <v>1.21515134439961</v>
+        <v>6.27793</v>
       </c>
       <c r="O17">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="P17">
-        <v>0.1069534071873294</v>
+        <v>0.1679236427329297</v>
       </c>
       <c r="Q17">
-        <v>12.0314575197542</v>
+        <v>45.56962234931222</v>
       </c>
       <c r="R17">
-        <v>12.0314575197542</v>
+        <v>410.12660114381</v>
       </c>
       <c r="S17">
-        <v>0.02532420449045293</v>
+        <v>0.06702401359646148</v>
       </c>
       <c r="T17">
-        <v>0.02532420449045293</v>
+        <v>0.06702401359646148</v>
       </c>
     </row>
   </sheetData>
